--- a/Excel/MaskData.xlsx
+++ b/Excel/MaskData.xlsx
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>

--- a/Excel/MaskData.xlsx
+++ b/Excel/MaskData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>int</t>
   </si>
@@ -35,30 +35,24 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum:E_MaskType</t>
+  </si>
+  <si>
+    <t>enum:E_InputAction</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>enum:E_World</t>
   </si>
   <si>
-    <t>enum:E_MaskType</t>
-  </si>
-  <si>
-    <t>enum:E_InputAction</t>
-  </si>
-  <si>
-    <t>enum:E_SpAbility</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>表的主键(1开头表示表世界，2开头表示里世界)</t>
   </si>
   <si>
     <t>这个面具对应的描述</t>
   </si>
   <si>
-    <t>面具对应的世界类型</t>
-  </si>
-  <si>
     <t>可以附身的面具类型</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>面具对应的输入方式</t>
   </si>
   <si>
-    <t>面具对应的特殊能力</t>
-  </si>
-  <si>
     <t>体积</t>
   </si>
   <si>
@@ -95,51 +86,51 @@
     <t>必须要是阻挡物品的前提下，可以通过的类型</t>
   </si>
   <si>
+    <t>这个字段没用了，只是为了枚举的生成</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>des</t>
   </si>
   <si>
+    <t>maskType</t>
+  </si>
+  <si>
+    <t>spritePath</t>
+  </si>
+  <si>
+    <t>startLizi</t>
+  </si>
+  <si>
+    <t>inputAction</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>canStopItem</t>
+  </si>
+  <si>
+    <t>canPickItem</t>
+  </si>
+  <si>
+    <t>checkDis</t>
+  </si>
+  <si>
+    <t>loveType</t>
+  </si>
+  <si>
+    <t>hateType</t>
+  </si>
+  <si>
+    <t>crossType</t>
+  </si>
+  <si>
     <t>worldType</t>
   </si>
   <si>
-    <t>maskType</t>
-  </si>
-  <si>
-    <t>spritePath</t>
-  </si>
-  <si>
-    <t>startLizi</t>
-  </si>
-  <si>
-    <t>inputAction</t>
-  </si>
-  <si>
-    <t>spType</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>canStopItem</t>
-  </si>
-  <si>
-    <t>canPickItem</t>
-  </si>
-  <si>
-    <t>checkDis</t>
-  </si>
-  <si>
-    <t>loveType</t>
-  </si>
-  <si>
-    <t>hateType</t>
-  </si>
-  <si>
-    <t>crossType</t>
-  </si>
-  <si>
     <t>E_World</t>
   </si>
   <si>
@@ -201,21 +192,6 @@
   </si>
   <si>
     <t>Y轴竖直移动</t>
-  </si>
-  <si>
-    <t>E_SpAbility</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>无特殊能力</t>
-  </si>
-  <si>
-    <t>磁带的保存</t>
   </si>
   <si>
     <t>Sprites/Mouse</t>
@@ -1372,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
@@ -1395,7 +1371,7 @@
     <col min="16" max="16384" width="9.23148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:15">
+    <row r="1" ht="28.8" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,139 +1382,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" ht="101" customHeight="1" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" ht="101" customHeight="1" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="1" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1547,31 +1514,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1580,31 +1547,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="9" ht="28.8" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1622,111 +1589,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" ht="28.8" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="12" ht="28.8" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" ht="28.8" spans="1:15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>10001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="1">
@@ -1738,42 +1672,39 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>20001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>65</v>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1" t="b">
+      <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="1">
@@ -1783,9 +1714,6 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/MaskData.xlsx
+++ b/Excel/MaskData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>int</t>
   </si>
@@ -35,24 +35,30 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum:E_World</t>
+  </si>
+  <si>
     <t>enum:E_MaskType</t>
   </si>
   <si>
     <t>enum:E_InputAction</t>
   </si>
   <si>
+    <t>enum:E_SpAbility</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
-    <t>enum:E_World</t>
-  </si>
-  <si>
     <t>表的主键(1开头表示表世界，2开头表示里世界)</t>
   </si>
   <si>
     <t>这个面具对应的描述</t>
   </si>
   <si>
+    <t>面具对应的世界类型</t>
+  </si>
+  <si>
     <t>可以附身的面具类型</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t>面具对应的输入方式</t>
   </si>
   <si>
+    <t>面具对应的特殊能力</t>
+  </si>
+  <si>
     <t>体积</t>
   </si>
   <si>
@@ -86,15 +95,15 @@
     <t>必须要是阻挡物品的前提下，可以通过的类型</t>
   </si>
   <si>
-    <t>这个字段没用了，只是为了枚举的生成</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>des</t>
   </si>
   <si>
+    <t>worldType</t>
+  </si>
+  <si>
     <t>maskType</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
     <t>inputAction</t>
   </si>
   <si>
+    <t>spType</t>
+  </si>
+  <si>
     <t>volume</t>
   </si>
   <si>
@@ -128,9 +140,6 @@
     <t>crossType</t>
   </si>
   <si>
-    <t>worldType</t>
-  </si>
-  <si>
     <t>E_World</t>
   </si>
   <si>
@@ -158,12 +167,78 @@
     <t>Cassette</t>
   </si>
   <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Crow</t>
+  </si>
+  <si>
+    <t>Crocodile</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Streetlight</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
     <t>老鼠</t>
   </si>
   <si>
     <t>磁带</t>
   </si>
   <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>乌鸦</t>
+  </si>
+  <si>
+    <t>鳄鱼</t>
+  </si>
+  <si>
+    <t>大象</t>
+  </si>
+  <si>
+    <t>巧克力</t>
+  </si>
+  <si>
+    <t>岩石</t>
+  </si>
+  <si>
+    <t>路灯</t>
+  </si>
+  <si>
+    <t>皮球</t>
+  </si>
+  <si>
+    <t>沼泽</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>栅栏</t>
+  </si>
+  <si>
     <t>E_InputAction</t>
   </si>
   <si>
@@ -194,6 +269,21 @@
     <t>Y轴竖直移动</t>
   </si>
   <si>
+    <t>E_SpAbility</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>无特殊能力</t>
+  </si>
+  <si>
+    <t>磁带的保存</t>
+  </si>
+  <si>
     <t>Sprites/Mouse</t>
   </si>
   <si>
@@ -201,6 +291,45 @@
   </si>
   <si>
     <t>Sprites/Cassette</t>
+  </si>
+  <si>
+    <t>2*1</t>
+  </si>
+  <si>
+    <t>Sprites/Wolf</t>
+  </si>
+  <si>
+    <t>Sprites/Crow</t>
+  </si>
+  <si>
+    <t>Sprites/Crocodile</t>
+  </si>
+  <si>
+    <t>Sprites/Elephant</t>
+  </si>
+  <si>
+    <t>2*2</t>
+  </si>
+  <si>
+    <t>Sprites/Chocolate</t>
+  </si>
+  <si>
+    <t>Sprites/Rock</t>
+  </si>
+  <si>
+    <t>Sprites/Streetlight</t>
+  </si>
+  <si>
+    <t>Sprites/Ball</t>
+  </si>
+  <si>
+    <t>Sprites/Swamp</t>
+  </si>
+  <si>
+    <t>Sprites/Human</t>
+  </si>
+  <si>
+    <t>Sprites/Fence</t>
   </si>
 </sst>
 </file>
@@ -366,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +504,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,12 +601,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +827,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,16 +851,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -734,93 +869,99 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1348,20 +1489,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="4" width="17.3055555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3055555555556" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.3055555555556" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.9907407407407" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.212962962963" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6666666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.4444444444444" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.7777777777778" style="1" customWidth="1"/>
     <col min="10" max="11" width="13.6111111111111" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.8518518518519" style="1" customWidth="1"/>
@@ -1371,212 +1513,326 @@
     <col min="16" max="16384" width="9.23148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="101" customHeight="1" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="101" customHeight="1" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="H7" s="1">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I7" s="1">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J7" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K7" s="1">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L7" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M7" s="1">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N7" s="1">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" ht="28.8" spans="1:14">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -1588,79 +1844,124 @@
       <c r="F10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="1:14">
+        <v>74</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>79</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:15">
       <c r="A19" s="1">
         <v>10001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="1">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L19" s="1">
@@ -1672,39 +1973,42 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:15">
       <c r="A20" s="1">
         <v>20001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L20" s="1">
@@ -1714,6 +2018,526 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:15">
+      <c r="A21" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:15">
+      <c r="A22" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="28.8" spans="1:15">
+      <c r="A23" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:15">
+      <c r="A24" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="28.8" spans="1:15">
+      <c r="A25" s="2">
+        <v>20002</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>5</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2</v>
+      </c>
+      <c r="O25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:15">
+      <c r="A26" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="28.8" spans="1:15">
+      <c r="A27" s="2">
+        <v>20004</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>3</v>
+      </c>
+      <c r="M27" s="2">
+        <v>3</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:15">
+      <c r="A28" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:15">
+      <c r="A29" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:15">
+      <c r="A30" s="1">
+        <v>20007</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:15">
+      <c r="A31" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/MaskData.xlsx
+++ b/Excel/MaskData.xlsx
@@ -1491,8 +1491,8 @@
   <sheetPr/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>

--- a/Excel/MaskData.xlsx
+++ b/Excel/MaskData.xlsx
@@ -1491,8 +1491,8 @@
   <sheetPr/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>

--- a/Excel/MaskData.xlsx
+++ b/Excel/MaskData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t>int</t>
   </si>
@@ -95,6 +95,9 @@
     <t>必须要是阻挡物品的前提下，可以通过的类型</t>
   </si>
   <si>
+    <t>初始的疯狂值</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t>crossType</t>
   </si>
   <si>
+    <t>startCrazy</t>
+  </si>
+  <si>
     <t>E_World</t>
   </si>
   <si>
@@ -200,6 +206,9 @@
     <t>Fence</t>
   </si>
   <si>
+    <t>Mask</t>
+  </si>
+  <si>
     <t>老鼠</t>
   </si>
   <si>
@@ -239,6 +248,9 @@
     <t>栅栏</t>
   </si>
   <si>
+    <t>面具</t>
+  </si>
+  <si>
     <t>E_InputAction</t>
   </si>
   <si>
@@ -330,6 +342,9 @@
   </si>
   <si>
     <t>Sprites/Fence</t>
+  </si>
+  <si>
+    <t>Sprites/Mask</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
@@ -1510,10 +1525,12 @@
     <col min="13" max="13" width="17.1111111111111" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.2222222222222" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.5555555555556" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.23148148148148" style="1"/>
+    <col min="16" max="16" width="12" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.23148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1559,8 +1576,11 @@
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="101" customHeight="1" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="101" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1606,57 +1626,63 @@
       <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="P2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1667,35 +1693,35 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+    <row r="5" s="1" customFormat="1" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:15">
+    <row r="6" s="1" customFormat="1" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:15">
+    <row r="7" s="1" customFormat="1" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1736,98 +1762,107 @@
       <c r="N7" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:15">
+      <c r="O7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:15">
+        <v>58</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:15">
+        <v>72</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1847,53 +1882,53 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:15">
+    <row r="11" s="1" customFormat="1" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:15">
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:15">
+    <row r="13" s="1" customFormat="1" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1904,38 +1939,38 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:15">
+    <row r="14" s="1" customFormat="1" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:15">
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:15">
+    <row r="19" s="1" customFormat="1" spans="1:17">
       <c r="A19" s="1">
         <v>10001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1944,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
@@ -1956,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1" t="b">
         <v>1</v>
@@ -1976,13 +2011,16 @@
       <c r="O19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:15">
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:17">
       <c r="A20" s="1">
         <v>20001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1991,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2003,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J20" s="1" t="b">
         <v>1</v>
@@ -2023,13 +2061,16 @@
       <c r="O20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:15">
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:17">
       <c r="A21" s="1">
         <v>10002</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -2038,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F21" s="1">
         <v>7</v>
@@ -2050,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J21" s="1" t="b">
         <v>1</v>
@@ -2070,13 +2111,16 @@
       <c r="O21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:15">
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:17">
       <c r="A22" s="1">
         <v>10003</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -2085,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
@@ -2097,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J22" s="1" t="b">
         <v>1</v>
@@ -2117,13 +2161,16 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="28.8" spans="1:15">
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="28.8" spans="1:17">
       <c r="A23" s="1">
         <v>10004</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -2132,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
@@ -2144,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J23" s="1" t="b">
         <v>1</v>
@@ -2164,13 +2211,16 @@
       <c r="O23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:15">
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:17">
       <c r="A24" s="1">
         <v>10005</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -2179,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
@@ -2191,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J24" s="1" t="b">
         <v>1</v>
@@ -2211,13 +2261,16 @@
       <c r="O24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="28.8" spans="1:15">
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="28.8" spans="1:17">
       <c r="A25" s="2">
         <v>20002</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -2226,7 +2279,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2238,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J25" s="2" t="b">
         <v>1</v>
@@ -2258,13 +2311,17 @@
       <c r="O25" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:15">
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:17">
       <c r="A26" s="1">
         <v>20003</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -2273,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2285,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J26" s="1" t="b">
         <v>1</v>
@@ -2305,13 +2362,16 @@
       <c r="O26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="28.8" spans="1:15">
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="28.8" spans="1:17">
       <c r="A27" s="2">
         <v>20004</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -2320,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2332,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J27" s="2" t="b">
         <v>0</v>
@@ -2352,13 +2412,17 @@
       <c r="O27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:15">
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:17">
       <c r="A28" s="1">
         <v>20005</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -2367,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2379,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J28" s="1" t="b">
         <v>1</v>
@@ -2399,13 +2463,16 @@
       <c r="O28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:15">
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:17">
       <c r="A29" s="1">
         <v>20006</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -2414,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2426,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J29" s="1" t="b">
         <v>1</v>
@@ -2446,13 +2513,16 @@
       <c r="O29" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:15">
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:17">
       <c r="A30" s="1">
         <v>20007</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -2461,7 +2531,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2473,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J30" s="1" t="b">
         <v>1</v>
@@ -2493,13 +2563,16 @@
       <c r="O30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:15">
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:17">
       <c r="A31" s="1">
         <v>10006</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -2508,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2520,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J31" s="1" t="b">
         <v>1</v>
@@ -2539,6 +2612,59 @@
       </c>
       <c r="O31" s="1">
         <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:17">
+      <c r="A32" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MaskData.xlsx
+++ b/Excel/MaskData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
   <si>
     <t>int</t>
   </si>
@@ -50,6 +50,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>表的主键(1开头表示表世界，2开头表示里世界)</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>初始的疯狂值</t>
   </si>
   <si>
+    <t>面具接近和逃离的速度</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -144,6 +150,9 @@
   </si>
   <si>
     <t>startCrazy</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
   </si>
   <si>
     <t>E_World</t>
@@ -1506,8 +1515,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
@@ -1530,7 +1539,7 @@
     <col min="18" max="16384" width="9.23148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,110 +1588,119 @@
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="101" customHeight="1" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="101" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1693,35 +1711,35 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:16">
+    <row r="6" s="1" customFormat="1" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:16">
+    <row r="7" s="1" customFormat="1" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1766,103 +1784,103 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:16">
+    <row r="8" s="1" customFormat="1" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1882,53 +1900,53 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:16">
+    <row r="11" s="1" customFormat="1" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:16">
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:16">
+    <row r="13" s="1" customFormat="1" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1939,28 +1957,28 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:16">
+    <row r="14" s="1" customFormat="1" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:16">
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1970,7 +1988,7 @@
         <v>10001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1979,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
@@ -1991,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1" t="b">
         <v>1</v>
@@ -2013,6 +2031,9 @@
       </c>
       <c r="P19" s="1">
         <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:17">
@@ -2020,7 +2041,7 @@
         <v>20001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -2029,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2041,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J20" s="1" t="b">
         <v>1</v>
@@ -2063,6 +2084,9 @@
       </c>
       <c r="P20" s="1">
         <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:17">
@@ -2070,7 +2094,7 @@
         <v>10002</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -2079,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F21" s="1">
         <v>7</v>
@@ -2091,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J21" s="1" t="b">
         <v>1</v>
@@ -2113,6 +2137,9 @@
       </c>
       <c r="P21" s="1">
         <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:17">
@@ -2120,7 +2147,7 @@
         <v>10003</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -2129,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
@@ -2141,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J22" s="1" t="b">
         <v>1</v>
@@ -2163,6 +2190,9 @@
       </c>
       <c r="P22" s="1">
         <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="28.8" spans="1:17">
@@ -2170,7 +2200,7 @@
         <v>10004</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -2179,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
@@ -2191,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J23" s="1" t="b">
         <v>1</v>
@@ -2213,6 +2243,9 @@
       </c>
       <c r="P23" s="1">
         <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:17">
@@ -2220,7 +2253,7 @@
         <v>10005</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -2229,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
@@ -2241,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J24" s="1" t="b">
         <v>1</v>
@@ -2263,6 +2296,9 @@
       </c>
       <c r="P24" s="1">
         <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="28.8" spans="1:17">
@@ -2270,7 +2306,7 @@
         <v>20002</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -2279,7 +2315,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2291,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J25" s="2" t="b">
         <v>1</v>
@@ -2314,14 +2350,16 @@
       <c r="P25" s="1">
         <v>0</v>
       </c>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:17">
       <c r="A26" s="1">
         <v>20003</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -2330,7 +2368,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2342,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J26" s="1" t="b">
         <v>1</v>
@@ -2364,6 +2402,9 @@
       </c>
       <c r="P26" s="1">
         <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="28.8" spans="1:17">
@@ -2371,7 +2412,7 @@
         <v>20004</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -2380,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2392,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J27" s="2" t="b">
         <v>0</v>
@@ -2415,14 +2456,16 @@
       <c r="P27" s="1">
         <v>0</v>
       </c>
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:17">
       <c r="A28" s="1">
         <v>20005</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -2431,7 +2474,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2443,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J28" s="1" t="b">
         <v>1</v>
@@ -2465,6 +2508,9 @@
       </c>
       <c r="P28" s="1">
         <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:17">
@@ -2472,7 +2518,7 @@
         <v>20006</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -2481,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2493,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J29" s="1" t="b">
         <v>1</v>
@@ -2515,6 +2561,9 @@
       </c>
       <c r="P29" s="1">
         <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:17">
@@ -2522,7 +2571,7 @@
         <v>20007</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -2531,7 +2580,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2543,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J30" s="1" t="b">
         <v>1</v>
@@ -2565,6 +2614,9 @@
       </c>
       <c r="P30" s="1">
         <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:17">
@@ -2572,7 +2624,7 @@
         <v>10006</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -2581,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2593,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J31" s="1" t="b">
         <v>1</v>
@@ -2615,6 +2667,9 @@
       </c>
       <c r="P31" s="1">
         <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:17">
@@ -2622,7 +2677,7 @@
         <v>10007</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -2631,7 +2686,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2643,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J32" s="1" t="b">
         <v>1</v>
@@ -2665,6 +2720,9 @@
       </c>
       <c r="P32" s="1">
         <v>5</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MaskData.xlsx
+++ b/Excel/MaskData.xlsx
@@ -1515,8 +1515,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
